--- a/caudal_H34_H36_logico_corregido.xlsx
+++ b/caudal_H34_H36_logico_corregido.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lourd\OneDrive\Documents\Leandro\cosas de la U\legislacion\legislacion_hidricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A777CF46-6645-4511-A39D-C8B6E4A0B44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D365AC18-29CC-4771-BFFD-344F393C2C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15576" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,11 +405,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="D181" sqref="A170:D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2778,272 +2781,63 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B170">
-        <v>2.0572279999999998</v>
-      </c>
-      <c r="C170">
-        <v>0.51141400000000004</v>
-      </c>
-      <c r="D170">
-        <v>0.51141400000000004</v>
-      </c>
+      <c r="A170" s="2"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" s="2">
-        <v>45323</v>
-      </c>
-      <c r="B171">
-        <v>2.0572279999999998</v>
-      </c>
-      <c r="C171">
-        <v>0.31785600000000003</v>
-      </c>
-      <c r="D171">
-        <v>0.31785600000000003</v>
-      </c>
+      <c r="A171" s="2"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" s="2">
-        <v>45352</v>
-      </c>
-      <c r="B172">
-        <v>2.0572279999999998</v>
-      </c>
-      <c r="C172">
-        <v>0.51781600000000005</v>
-      </c>
-      <c r="D172">
-        <v>0.51781600000000005</v>
-      </c>
+      <c r="A172" s="2"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="2">
-        <v>45383</v>
-      </c>
-      <c r="B173">
-        <v>2.0572279999999998</v>
-      </c>
-      <c r="C173">
-        <v>0.36970900000000001</v>
-      </c>
-      <c r="D173">
-        <v>0.36970900000000001</v>
-      </c>
+      <c r="A173" s="2"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="2">
-        <v>45413</v>
-      </c>
-      <c r="B174">
-        <v>2.0572279999999998</v>
-      </c>
-      <c r="C174">
-        <v>0.36970900000000001</v>
-      </c>
-      <c r="D174">
-        <v>0.36970900000000001</v>
-      </c>
+      <c r="A174" s="2"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="2">
-        <v>45444</v>
-      </c>
-      <c r="B175">
-        <v>2.0572279999999998</v>
-      </c>
-      <c r="C175">
-        <v>0.36970900000000001</v>
-      </c>
-      <c r="D175">
-        <v>0.36970900000000001</v>
-      </c>
+      <c r="A175" s="2"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="2">
-        <v>45474</v>
-      </c>
-      <c r="B176">
-        <v>2.0572279999999998</v>
-      </c>
-      <c r="C176">
-        <v>0.36970900000000001</v>
-      </c>
-      <c r="D176">
-        <v>0.36970900000000001</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" s="2">
-        <v>45505</v>
-      </c>
-      <c r="B177">
-        <v>2.0572279999999998</v>
-      </c>
-      <c r="C177">
-        <v>0.36970900000000001</v>
-      </c>
-      <c r="D177">
-        <v>0.36970900000000001</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" s="2">
-        <v>45536</v>
-      </c>
-      <c r="B178">
-        <v>2.0572279999999998</v>
-      </c>
-      <c r="C178">
-        <v>0.36970900000000001</v>
-      </c>
-      <c r="D178">
-        <v>0.36970900000000001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" s="2">
-        <v>45566</v>
-      </c>
-      <c r="B179">
-        <v>2.0572279999999998</v>
-      </c>
-      <c r="C179">
-        <v>0.36970900000000001</v>
-      </c>
-      <c r="D179">
-        <v>0.36970900000000001</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="2">
-        <v>45597</v>
-      </c>
-      <c r="B180">
-        <v>2.0572279999999998</v>
-      </c>
-      <c r="C180">
-        <v>0.36970900000000001</v>
-      </c>
-      <c r="D180">
-        <v>0.36970900000000001</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="2">
-        <v>45627</v>
-      </c>
-      <c r="B181">
-        <v>2.0572279999999998</v>
-      </c>
-      <c r="C181">
-        <v>0.36970900000000001</v>
-      </c>
-      <c r="D181">
-        <v>0.36970900000000001</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" s="2">
-        <v>45658</v>
-      </c>
-      <c r="B182">
-        <v>2.0572279999999998</v>
-      </c>
-      <c r="C182">
-        <v>0.36970900000000001</v>
-      </c>
-      <c r="D182">
-        <v>0.36970900000000001</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" s="2">
-        <v>45689</v>
-      </c>
-      <c r="B183">
-        <v>2.0572279999999998</v>
-      </c>
-      <c r="C183">
-        <v>0.36970900000000001</v>
-      </c>
-      <c r="D183">
-        <v>0.36970900000000001</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="2">
-        <v>45717</v>
-      </c>
-      <c r="B184">
-        <v>2.0572279999999998</v>
-      </c>
-      <c r="C184">
-        <v>0.36970900000000001</v>
-      </c>
-      <c r="D184">
-        <v>0.36970900000000001</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="2">
-        <v>45748</v>
-      </c>
-      <c r="B185">
-        <v>2.0572279999999998</v>
-      </c>
-      <c r="C185">
-        <v>0.36970900000000001</v>
-      </c>
-      <c r="D185">
-        <v>0.36970900000000001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="2">
-        <v>45778</v>
-      </c>
-      <c r="B186">
-        <v>2.0572279999999998</v>
-      </c>
-      <c r="C186">
-        <v>0.36970900000000001</v>
-      </c>
-      <c r="D186">
-        <v>0.36970900000000001</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="2">
-        <v>45809</v>
-      </c>
-      <c r="B187">
-        <v>2.0572279999999998</v>
-      </c>
-      <c r="C187">
-        <v>0.36970900000000001</v>
-      </c>
-      <c r="D187">
-        <v>0.36970900000000001</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" s="2">
-        <v>45839</v>
-      </c>
-      <c r="B188">
-        <v>2.0572279999999998</v>
-      </c>
-      <c r="C188">
-        <v>0.36970900000000001</v>
-      </c>
-      <c r="D188">
-        <v>0.36970900000000001</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="2"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
     </row>
   </sheetData>
